--- a/documents/evaluation_2.xlsx
+++ b/documents/evaluation_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="33">
   <si>
     <t>Off-Line</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>eth Methane</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -277,7 +280,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -433,11 +435,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="204154544"/>
-        <c:axId val="204158464"/>
+        <c:axId val="198815064"/>
+        <c:axId val="198816632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204154544"/>
+        <c:axId val="198815064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,7 +465,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -484,7 +485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204158464"/>
+        <c:crossAx val="198816632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -492,7 +493,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204158464"/>
+        <c:axId val="198816632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +528,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -553,7 +553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204154544"/>
+        <c:crossAx val="198815064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -565,7 +565,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -626,7 +625,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -782,11 +780,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="204155720"/>
-        <c:axId val="204159640"/>
+        <c:axId val="198814672"/>
+        <c:axId val="198815848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204155720"/>
+        <c:axId val="198814672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +810,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -833,7 +830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204159640"/>
+        <c:crossAx val="198815848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -841,7 +838,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204159640"/>
+        <c:axId val="198815848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +873,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -902,7 +898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204155720"/>
+        <c:crossAx val="198814672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -914,7 +910,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1176,11 +1171,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="395827832"/>
-        <c:axId val="395825088"/>
+        <c:axId val="198813888"/>
+        <c:axId val="200034344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395827832"/>
+        <c:axId val="198813888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395825088"/>
+        <c:crossAx val="200034344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1287,7 +1282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395825088"/>
+        <c:axId val="200034344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,7 +1389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395827832"/>
+        <c:crossAx val="198813888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1679,11 +1674,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="397684848"/>
-        <c:axId val="397682496"/>
+        <c:axId val="200037088"/>
+        <c:axId val="200034736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="397684848"/>
+        <c:axId val="200037088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397682496"/>
+        <c:crossAx val="200034736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1790,7 +1785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="397682496"/>
+        <c:axId val="200034736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +1892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397684848"/>
+        <c:crossAx val="200037088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2248,11 +2243,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="396795360"/>
-        <c:axId val="453278232"/>
+        <c:axId val="200032776"/>
+        <c:axId val="200035912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="396795360"/>
+        <c:axId val="200032776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2351,7 +2346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453278232"/>
+        <c:crossAx val="200035912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2359,7 +2354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="453278232"/>
+        <c:axId val="200035912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,7 +2461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396795360"/>
+        <c:crossAx val="200032776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8391,8 +8386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
@@ -8744,8 +8739,8 @@
       <c r="H8" s="11">
         <v>-1.8200000000000001E-2</v>
       </c>
-      <c r="I8" s="11">
-        <v>0</v>
+      <c r="I8" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="J8" s="11">
         <v>4.82E-2</v>
